--- a/r2/build/tr23-r2-bom/tr23-badge-r2.xlsx
+++ b/r2/build/tr23-r2-bom/tr23-badge-r2.xlsx
@@ -8,10 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="tr23-badge-r1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2-USB-connector" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3-pin-header-bottom-entry" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet4-coloured-switches" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="tr23-badge-r2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="tr23-badge-r1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2-USB-connector" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet3-pin-header-bottom-entry" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Sheet5-reverse-mount-buttons" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="265">
   <si>
     <t xml:space="preserve">Ref</t>
   </si>
@@ -68,727 +68,767 @@
     <t xml:space="preserve">A1, </t>
   </si>
   <si>
+    <t xml:space="preserve">ESP32-WROVER-E-N16R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espressif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C529589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jeffmakes-footprints:ESP32-WROVER-I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1, C2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitor_SMD:C_0402_1005Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unpolarized capacitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3, C5, C11, C12, C14, C18, C19, C31, C32, C33, C34, C35, C36, C38, C39, C40, C70, C71, C72, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4, C37, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitor_SMD:C_0603_1608Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6, C7, C10, C13, C15, C16, C17, C20, C21, C22, C23, C24, C25, C26, C27, C28, C29, C30, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8, C9, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C41, C61, C67, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C42, C43, C50, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C44, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> U2J / UJ / C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C45, C63, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C46, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C47, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">33pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C48, C51, C53, C56, C57, C59, C60, C62, C64, C66, C68, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">47nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X5R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C49, C54, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C52, C69, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C55, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C58, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C65, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">220nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCD1206G1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C99881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jeffmakes-footprints:D-1206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light emitting diode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCD1206O1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C130716 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS13FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C190475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diode_SMD:D_SOD-123F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schottky diode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCD1206Y1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C93094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5, D6, D7, D8, D9, D10, D11, D12, D13, D14, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ESD5Z6.0T5G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESD5Z5.0VC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C261278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jeffmakes-footprints:SOD-523-numbered-pads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bidirectional transient-voltage-suppression diode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1, J9, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C132528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connector_Molex:Molex_PicoBlade_53261-0271_1x02-1MP_P1.25mm_Horizontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generic connector, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE-C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">918-418K2023S40001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C167321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jeffmakes-footprints:jing-usb-c-lcsc-C167321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB-A-10mm-flangeless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jeffmakes-footprints:USB-A-short-body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB Type A connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See Sheet 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J4, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFC07-S40ECA-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jushuo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C262648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jeffmakes-footprints:AFC07x40-1MP_P0.5mm_Horizontal_reverse_pinout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generic connectable mounting pin connector, single row, 01x40, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J5, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PJ-320D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C431535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jeffmakes-footprints:Jack_3.5mm_PJ320D_Horizontal_strengthening-vias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audio Jack, 4 Poles (TRRS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J6, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x03-socket-2.54-through-board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jeffmakes-footprints:PinSocket_2x03_P2.54mm_Through-Board-Mating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generic connector, double row, 02x03, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See Sheet 3 – bottom entry type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J7, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TF-15x15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOFNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C111196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jeffmakes-footprints:microSD_HC_Sofng_TF-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connector_Coaxial:SMA_Amphenol_132134-10_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coaxial connector (BNC, SMA, SMB, SMC, Cinch/RCA, LEMO, ...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10nH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LQW15AN10NJ00D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C184029 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inductor_SMD:L_0402_1005Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2, L4, L7, L8, L9, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12nH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LQW15AN12NJ00D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C82920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15nH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LQW15AN15NJ00D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C94079 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L5, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5nH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LQW15AN7N5G00D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C82918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L6, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18nH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LQW15AN18NJ00D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C82917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED1, LED2, LED3, LED4, LED5, LED6, LED7, LED8, LED9, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse mount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jeffmakes-footprints:LED_SK6812SIDE-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGB LED with integrated controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1, Q2, Q3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMBT3904-TP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micro Commercial Co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C909754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package_TO_SOT_SMD:SOT-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPN transistor, base/emitter/collector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4, Q5, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMG2305UX-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diodes Incorporated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C144153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P-MOSFET transistor, gate/source/drain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q6, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP2302B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5224180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-MOSFET transistor, gate/source/drain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1, R2, R3, R6, R7, R11, R12, R16, R17, R18, R20, R22, R23, R24, R25, R26, R28, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor_SMD:R_0402_1005Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4, R5, R8, R9, R10, R13, R19, R21, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R14, R15, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R27, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">56k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R29, R32, R33, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R30, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R31, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1, S2, S4, S6, S7, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenzhou Libo Electronics Co., Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jeffmakes-footprints:SW_SPST_TACT-6x6-no-silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Push button switch, generic, two pins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specification already arranged with manufacturer. Ask about reducing lead time as far as possible. Happy to pay extra. Pantone 1375C colour reference confirmed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S3, S8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3-1296S-J1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C223848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button_Switch_SMD:SW_SPDT_PCM12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S5, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1-5202UA-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C145899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jeffmakes-footprints:SW_JS1400BFQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW1, SW2, SW3, SW4, SW5, SW6, SW7, SW8, SW9, SW10, SW11, SW12, SW13, SW14, SW15, SW16, SW17, SW18, SW19, SW20, SW21, SW22, SW23, SW24, SW25, SW26, SW27, SW28, SW29, SW30, SW31, SW32, SW33, SW34, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8HG-P-A-S1-03-065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jeffmakes-footprints:SW_SPST_TACT_6x6_REV_MOUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse-mount single pole normally-open tactile switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP73831T-2ACI_OT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microchip Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP73831T-2ACI/OT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C424093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package_TO_SOT_SMD:SOT-23-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single cell, Li-Ion/Li-Po charge management controller, 4.20V, Tri-State Status Output, in SOT23-5 package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP2114H-3_3TRG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP2114H-3.3TRG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package_TO_SOT_SMD:SOT-223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP2102N-A01-GQFN24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si Labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C80225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package_DFN_QFN:QFN-24-1EP_4x4mm_P0.5mm_EP2.6x2.6mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB to UART master bridge, QFN-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U4, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCM5100APW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas Instruments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCM5100APWR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1540069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package_SO:TSSOP-20_4.4x6.5mm_P0.65mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2VRMS DirectPath, 100dB Audio Stereo DAC with 32-bit, 384kHz PCM Interface, TSSOP-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U5, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAM8908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C33233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package_DFN_QFN:QFN-16-1EP_3x3mm_P0.5mm_EP1.7x1.7mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U6, U7, U8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCA9555PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C128392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package_SO:TSSOP-24_4.4x7.8mm_P0.65mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U9, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C122881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package_DFN_QFN:QFN-32-1EP_5x5mm_P0.5mm_EP3.45x3.45mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low-Power, High-Performance RF Transceiver, QFN-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.768kHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seiko Epson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q13FC1350000200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C48615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal:Crystal_SMD_3215-2Pin_3.2x1.5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two pin crystal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">40Mhz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X1E000021017700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C255943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal:Crystal_SMD_3225-4Pin_3.2x2.5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Four pin crystal, GND on pins 2 and 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build quantity:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production units rev 2. (delivery 15/06/2023)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">units</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Shitty Addon kits </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(delivery 15/06/2023)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">ESP32-WROVER-B</t>
   </si>
   <si>
-    <t xml:space="preserve">Espressif</t>
-  </si>
-  <si>
     <t xml:space="preserve">C503591</t>
   </si>
   <si>
-    <t xml:space="preserve">jeffmakes-footprints:ESP32-WROVER-I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1, C2, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C0G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacitor_SMD:C_0402_1005Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unpolarized capacitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3, C5, C11, C12, C14, C18, C19, C31, C32, C33, C34, C35, C36, C38, C39, C40, C70, C71, C72, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">100nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4, C37, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacitor_SMD:C_0603_1608Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6, C7, C10, C13, C15, C16, C17, C20, C21, C22, C23, C24, C25, C26, C27, C28, C29, C30, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8, C9, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C41, C61, C67, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C42, C43, C50, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C44, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> U2J / UJ / C0G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C45, C63, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C46, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">100pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C47, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">33pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C48, C51, C53, C56, C57, C59, C60, C62, C64, C66, C68, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">47nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X5R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C49, C54, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C52, C69, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C55, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C58, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C65, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">220nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCD1206G1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C99881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jeffmakes-footprints:D-1206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Light emitting diode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCD1206O1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C130716 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS13FL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C190475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diode_SMD:D_SOD-123F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schottky diode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yellow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCD1206Y1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C93094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5, D6, D7, D8, D9, D10, D11, D12, D13, D14, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ESD5Z6.0T5G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESD5Z5.0VC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C261278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jeffmakes-footprints:SOD-523-numbered-pads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bidirectional transient-voltage-suppression diode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J1, J9, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C132528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connector_Molex:Molex_PicoBlade_53261-0271_1x02-1MP_P1.25mm_Horizontal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generic connector, single row, 01x02, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J2, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TYPE-C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">918-418K2023S40001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C167321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jeffmakes-footprints:jing-usb-c-lcsc-C167321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J3, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB-A-10mm-flangeless</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jeffmakes-footprints:USB-A-short-body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB Type A connector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">See Sheet 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J4, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFC07-S40ECA-00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jushuo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C262648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jeffmakes-footprints:AFC07x40-1MP_P0.5mm_Horizontal_reverse_pinout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generic connectable mounting pin connector, single row, 01x40, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J5, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PJ-320D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C431535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jeffmakes-footprints:Jack_3.5mm_PJ320D_Horizontal_strengthening-vias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Audio Jack, 4 Poles (TRRS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J6, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2x03-socket-2.54-through-board</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jeffmakes-footprints:PinSocket_2x03_P2.54mm_Through-Board-Mating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generic connector, double row, 02x03, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">See Sheet 3 – bottom entry type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J7, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TF-15x15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOFNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C111196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jeffmakes-footprints:microSD_HC_Sofng_TF-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J8, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connector_Coaxial:SMA_Amphenol_132134-10_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coaxial connector (BNC, SMA, SMB, SMC, Cinch/RCA, LEMO, ...)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10nH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQW15AN10NJ00D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C184029 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inductor_SMD:L_0402_1005Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inductor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2, L4, L7, L8, L9, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12nH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQW15AN12NJ00D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C82920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L3, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15nH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQW15AN15NJ00D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C94079 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L5, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5nH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQW15AN7N5G00D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C82918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L6, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">18nH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQW15AN18NJ00D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C82917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED1, LED2, LED3, LED4, LED5, LED6, LED7, LED8, LED9, </t>
-  </si>
-  <si>
     <t xml:space="preserve">Reverse mount?</t>
   </si>
   <si>
-    <t xml:space="preserve">jeffmakes-footprints:LED_SK6812SIDE-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RGB LED with integrated controller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1, Q2, Q3, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMBT3904-TP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micro Commercial Co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C909754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Package_TO_SOT_SMD:SOT-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPN transistor, base/emitter/collector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4, Q5, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMG2305UX-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diodes Incorporated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C144153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P-MOSFET transistor, gate/source/drain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q6, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP2302B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5224180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-MOSFET transistor, gate/source/drain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1, R2, R3, R6, R7, R11, R12, R16, R17, R18, R20, R22, R23, R24, R25, R26, R28, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistor_SMD:R_0402_1005Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4, R5, R8, R9, R10, R13, R19, R21, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R14, R15, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R27, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">56k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R29, R32, R33, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R30, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R31, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1, S2, S4, S6, S7, </t>
-  </si>
-  <si>
     <t xml:space="preserve">Orange?</t>
   </si>
   <si>
     <t xml:space="preserve">C&amp;K</t>
   </si>
   <si>
-    <t xml:space="preserve">jeffmakes-footprints:SW_SPST_TACT-6x6-no-silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Push button switch, generic, two pins</t>
-  </si>
-  <si>
     <t xml:space="preserve">See Sheet 4 – coloured switches, but must be SMT type</t>
   </si>
   <si>
-    <t xml:space="preserve">S3, S8, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3-1296S-J1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C223848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button_Switch_SMD:SW_SPDT_PCM12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S5, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">K1-5202UA-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C145899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jeffmakes-footprints:SW_JS1400BFQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW1, SW2, SW3, SW4, SW5, SW6, SW7, SW8, SW9, SW10, SW11, SW12, SW13, SW14, SW15, SW16, SW17, SW18, SW19, SW20, SW21, SW22, SW23, SW24, SW25, SW26, SW27, SW28, SW29, SW30, SW31, SW32, SW33, SW34, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8HG-P-A-S1-03-065</t>
-  </si>
-  <si>
     <t xml:space="preserve">Laxxscom</t>
   </si>
   <si>
     <t xml:space="preserve">8HG</t>
   </si>
   <si>
-    <t xml:space="preserve">jeffmakes-footprints:SW_SPST_TACT_6x6_REV_MOUNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse-mount single pole normally-open tactile switch</t>
-  </si>
-  <si>
     <t xml:space="preserve">See Sheet 5 – reverse mount switches</t>
   </si>
   <si>
-    <t xml:space="preserve">U1, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCP73831T-2ACI_OT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microchip Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCP73831T-2ACI/OT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C424093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Package_TO_SOT_SMD:SOT-23-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single cell, Li-Ion/Li-Po charge management controller, 4.20V, Tri-State Status Output, in SOT23-5 package</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP2114H-3_3TRG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP2114H-3.3TRG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Package_TO_SOT_SMD:SOT-223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U3, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP2102N-A01-GQFN24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si Labs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C80225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Package_DFN_QFN:QFN-24-1EP_4x4mm_P0.5mm_EP2.6x2.6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB to UART master bridge, QFN-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U4, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCM5100APW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texas Instruments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCM5100APWR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1540069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Package_SO:TSSOP-20_4.4x6.5mm_P0.65mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2VRMS DirectPath, 100dB Audio Stereo DAC with 32-bit, 384kHz PCM Interface, TSSOP-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U5, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAM8908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C33233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Package_DFN_QFN:QFN-16-1EP_3x3mm_P0.5mm_EP1.7x1.7mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U6, U7, U8, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCA9555PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C128392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Package_SO:TSSOP-24_4.4x7.8mm_P0.65mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U9, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC1200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C122881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Package_DFN_QFN:QFN-32-1EP_5x5mm_P0.5mm_EP3.45x3.45mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low-Power, High-Performance RF Transceiver, QFN-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y1, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.768kHz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seiko Epson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q13FC1350000200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C48615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystal:Crystal_SMD_3215-2Pin_3.2x1.5mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two pin crystal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y2, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">40Mhz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X1E000021017700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C255943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystal:Crystal_SMD_3225-4Pin_3.2x2.5mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Four pin crystal, GND on pins 2 and 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build quantity:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prototye units rev 1.(delivery mid-April 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">units</t>
   </si>
   <si>
     <t xml:space="preserve">Production units rev 2. (delivery late May 2023)</t>
@@ -804,7 +844,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -832,6 +872,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -882,7 +927,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -891,7 +936,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -926,9 +979,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>16920</xdr:colOff>
+      <xdr:colOff>16560</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -942,7 +995,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6519240" cy="4673160"/>
+          <a:ext cx="6518880" cy="4672800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -963,9 +1016,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>594000</xdr:colOff>
+      <xdr:colOff>593640</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -979,7 +1032,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6467760" y="0"/>
-          <a:ext cx="6318360" cy="4634640"/>
+          <a:ext cx="6318000" cy="4634280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1000,9 +1053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>732960</xdr:colOff>
+      <xdr:colOff>732600</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>33120</xdr:rowOff>
+      <xdr:rowOff>32760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1016,7 +1069,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4554000"/>
-          <a:ext cx="6422400" cy="4094640"/>
+          <a:ext cx="6422040" cy="4094280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1037,9 +1090,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>601200</xdr:colOff>
+      <xdr:colOff>600840</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1053,7 +1106,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6344280" y="4592520"/>
-          <a:ext cx="6449040" cy="4083120"/>
+          <a:ext cx="6448680" cy="4082760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1079,9 +1132,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>97920</xdr:colOff>
+      <xdr:colOff>97560</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1095,7 +1148,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="15541200" cy="10412280"/>
+          <a:ext cx="15540840" cy="10411920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1120,14 +1173,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>85320</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>499320</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 6" descr=""/>
+        <xdr:cNvPr id="5" name="Image 7" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1137,49 +1190,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="18779760" cy="8087760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>499680</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 7" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="6189120" cy="4644720"/>
+          <a:ext cx="6188760" cy="4644360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1200,13 +1211,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>483840</xdr:colOff>
+      <xdr:colOff>483480</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Image 8" descr=""/>
+        <xdr:cNvPr id="6" name="Image 8" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1216,7 +1227,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5421600" y="0"/>
-          <a:ext cx="11318400" cy="15327360"/>
+          <a:ext cx="11318040" cy="15327000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1237,13 +1248,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>553320</xdr:colOff>
+      <xdr:colOff>552960</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Image 9" descr=""/>
+        <xdr:cNvPr id="7" name="Image 9" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1253,7 +1264,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16275240" y="0"/>
-          <a:ext cx="15977160" cy="11014920"/>
+          <a:ext cx="15976800" cy="11014560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1273,10 +1284,1422 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:M66"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="67.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="71.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="171.84"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>532610271</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>532610271</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="M52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B65" s="5" t="n">
+        <v>355</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B66" s="5" t="n">
+        <v>355</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1296,44 +2719,44 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="171.84"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1345,16 +2768,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
@@ -1840,129 +3263,129 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+    <row r="27" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K27" s="3" t="s">
+      <c r="J27" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="K27" s="5" t="s">
         <v>98</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="I29" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3" t="s">
+    <row r="30" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="B30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="J30" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="K30" s="5" t="s">
         <v>115</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="I31" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>1</v>
@@ -1977,324 +3400,324 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="I39" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="I40" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>17</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>8</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>1</v>
@@ -2303,50 +3726,50 @@
         <v>33</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B49" s="3" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="J49" s="3" t="s">
+      <c r="C49" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="J49" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>186</v>
+      <c r="M49" s="5" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2360,7 +3783,7 @@
         <v>188</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>188</v>
@@ -2372,7 +3795,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>191</v>
       </c>
@@ -2386,7 +3809,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>192</v>
@@ -2401,80 +3824,80 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
+    <row r="52" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="J52" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="K52" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>201</v>
+      <c r="M52" s="5" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B53" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="K53" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I53" s="1" t="s">
+    </row>
+    <row r="54" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="B54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="54" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B54" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -2482,218 +3905,218 @@
     </row>
     <row r="55" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B55" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="J55" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="K55" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B56" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="K56" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="B57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J59" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="K59" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="K60" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="J61" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H61" s="1" t="s">
+      <c r="K61" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="I61" s="1" t="s">
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="J61" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="K61" s="1" t="s">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B68" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B68" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B69" s="3" t="n">
+      <c r="A69" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B69" s="5" t="n">
         <v>350</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>254</v>
+      <c r="C69" s="5" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B70" s="3" t="n">
+      <c r="A70" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B70" s="5" t="n">
         <v>350</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>254</v>
+      <c r="C70" s="5" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2707,30 +4130,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R29" activeCellId="0" sqref="R29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -2738,8 +4137,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V47" activeCellId="0" sqref="V47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R29" activeCellId="0" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2763,7 +4162,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="V47" activeCellId="0" sqref="V47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
